--- a/owlcms/src/test/resources/testData/records/IWFRecords.xlsx
+++ b/owlcms/src/test/resources/testData/records/IWFRecords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms4\owlcms\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms4\owlcms\src\test\resources\testData\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2EFF34-B712-40BC-8202-0C67C129F384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02537B8B-62B1-45EA-9848-ACE9022C1A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="23280" windowHeight="13200" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="World SR M" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="136">
   <si>
     <t>Snatch</t>
   </si>
@@ -414,9 +414,6 @@
   </si>
   <si>
     <t>ageLow</t>
-  </si>
-  <si>
-    <t>ageHigh</t>
   </si>
   <si>
     <t>ageCat</t>
@@ -490,10 +487,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -506,9 +504,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -524,9 +519,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{D01ACEE8-0211-44F8-B662-F5268C6A64F2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -831,35 +832,34 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" customWidth="1"/>
     <col min="11" max="11" width="37.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="14" style="10" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="14" style="9" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>126</v>
@@ -868,10 +868,10 @@
         <v>127</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>42</v>
@@ -891,26 +891,32 @@
       <c r="N1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="E2" s="11">
+        <v>15</v>
+      </c>
+      <c r="F2" s="11">
+        <v>999</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
       <c r="H2">
         <v>55</v>
       </c>
@@ -923,28 +929,34 @@
       <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="E3" s="11">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11">
+        <v>999</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
       <c r="H3">
         <v>55</v>
       </c>
@@ -957,35 +969,41 @@
       <c r="K3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>33560</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <v>43726</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="E4" s="11">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11">
+        <v>999</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
       <c r="H4">
         <v>55</v>
       </c>
@@ -998,35 +1016,41 @@
       <c r="K4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>33560</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <v>43726</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="E5" s="11">
+        <v>15</v>
+      </c>
+      <c r="F5" s="11">
+        <v>999</v>
+      </c>
+      <c r="G5" s="11">
+        <v>55</v>
+      </c>
       <c r="H5">
         <v>61</v>
       </c>
@@ -1039,35 +1063,41 @@
       <c r="K5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>33984</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <v>43727</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="E6" s="11">
+        <v>15</v>
+      </c>
+      <c r="F6" s="11">
+        <v>999</v>
+      </c>
+      <c r="G6" s="11">
+        <v>55</v>
+      </c>
       <c r="H6">
         <v>61</v>
       </c>
@@ -1080,35 +1110,41 @@
       <c r="K6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>32713</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <v>43407</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="E7" s="11">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11">
+        <v>999</v>
+      </c>
+      <c r="G7" s="11">
+        <v>55</v>
+      </c>
       <c r="H7">
         <v>61</v>
       </c>
@@ -1121,35 +1157,41 @@
       <c r="K7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>33984</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>43727</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="E8" s="11">
+        <v>15</v>
+      </c>
+      <c r="F8" s="11">
+        <v>999</v>
+      </c>
+      <c r="G8" s="11">
+        <v>61</v>
+      </c>
       <c r="H8">
         <v>67</v>
       </c>
@@ -1162,35 +1204,41 @@
       <c r="K8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>33837</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <v>43652</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="E9" s="11">
+        <v>15</v>
+      </c>
+      <c r="F9" s="11">
+        <v>999</v>
+      </c>
+      <c r="G9" s="11">
+        <v>61</v>
+      </c>
       <c r="H9">
         <v>67</v>
       </c>
@@ -1203,35 +1251,41 @@
       <c r="K9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>35503</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <v>43728</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="E10" s="11">
+        <v>15</v>
+      </c>
+      <c r="F10" s="11">
+        <v>999</v>
+      </c>
+      <c r="G10" s="11">
+        <v>61</v>
+      </c>
       <c r="H10">
         <v>67</v>
       </c>
@@ -1244,35 +1298,41 @@
       <c r="K10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>34008</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <v>43576</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="E11" s="11">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11">
+        <v>999</v>
+      </c>
+      <c r="G11" s="11">
+        <v>67</v>
+      </c>
       <c r="H11">
         <v>73</v>
       </c>
@@ -1285,35 +1345,41 @@
       <c r="K11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>34252</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <v>43577</v>
       </c>
-      <c r="O11" s="10" t="s">
+      <c r="O11" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="11">
+        <v>15</v>
+      </c>
+      <c r="F12" s="11">
+        <v>999</v>
+      </c>
+      <c r="G12" s="11">
+        <v>67</v>
+      </c>
       <c r="H12">
         <v>73</v>
       </c>
@@ -1326,35 +1392,41 @@
       <c r="K12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>34252</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <v>43809</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="O12" s="9" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="E13" s="11">
+        <v>15</v>
+      </c>
+      <c r="F13" s="11">
+        <v>999</v>
+      </c>
+      <c r="G13" s="11">
+        <v>67</v>
+      </c>
       <c r="H13">
         <v>73</v>
       </c>
@@ -1367,35 +1439,41 @@
       <c r="K13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>34252</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <v>43729</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="O13" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="E14" s="11">
+        <v>15</v>
+      </c>
+      <c r="F14" s="11">
+        <v>999</v>
+      </c>
+      <c r="G14" s="11">
+        <v>73</v>
+      </c>
       <c r="H14">
         <v>81</v>
       </c>
@@ -1408,35 +1486,41 @@
       <c r="K14" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>32833</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="7">
         <v>43409</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="O14" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="E15" s="11">
+        <v>15</v>
+      </c>
+      <c r="F15" s="11">
+        <v>999</v>
+      </c>
+      <c r="G15" s="11">
+        <v>73</v>
+      </c>
       <c r="H15">
         <v>81</v>
       </c>
@@ -1449,35 +1533,41 @@
       <c r="K15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>30890</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <v>43730</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="O15" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="E16" s="11">
+        <v>15</v>
+      </c>
+      <c r="F16" s="11">
+        <v>999</v>
+      </c>
+      <c r="G16" s="11">
+        <v>73</v>
+      </c>
       <c r="H16">
         <v>81</v>
       </c>
@@ -1490,35 +1580,41 @@
       <c r="K16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <v>30890</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <v>43730</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="O16" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="E17" s="11">
+        <v>15</v>
+      </c>
+      <c r="F17" s="11">
+        <v>999</v>
+      </c>
+      <c r="G17" s="11">
+        <v>81</v>
+      </c>
       <c r="H17">
         <v>89</v>
       </c>
@@ -1531,28 +1627,34 @@
       <c r="K17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="8"/>
+      <c r="L17" s="7"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="E18" s="11">
+        <v>15</v>
+      </c>
+      <c r="F18" s="11">
+        <v>999</v>
+      </c>
+      <c r="G18" s="11">
+        <v>81</v>
+      </c>
       <c r="H18">
         <v>89</v>
       </c>
@@ -1565,28 +1667,34 @@
       <c r="K18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="8">
+      <c r="L18" s="7"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="E19" s="11">
+        <v>15</v>
+      </c>
+      <c r="F19" s="11">
+        <v>999</v>
+      </c>
+      <c r="G19" s="11">
+        <v>81</v>
+      </c>
       <c r="H19">
         <v>89</v>
       </c>
@@ -1599,28 +1707,34 @@
       <c r="K19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="8">
+      <c r="L19" s="7"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="E20" s="11">
+        <v>15</v>
+      </c>
+      <c r="F20" s="11">
+        <v>999</v>
+      </c>
+      <c r="G20" s="11">
+        <v>89</v>
+      </c>
       <c r="H20">
         <v>96</v>
       </c>
@@ -1633,35 +1747,41 @@
       <c r="K20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <v>32408</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="7">
         <v>43411</v>
       </c>
-      <c r="O20" s="10" t="s">
+      <c r="O20" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="E21" s="11">
+        <v>15</v>
+      </c>
+      <c r="F21" s="11">
+        <v>999</v>
+      </c>
+      <c r="G21" s="11">
+        <v>89</v>
+      </c>
       <c r="H21">
         <v>96</v>
       </c>
@@ -1674,35 +1794,41 @@
       <c r="K21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="7">
         <v>34432</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="7">
         <v>43653</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="O21" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="E22" s="11">
+        <v>15</v>
+      </c>
+      <c r="F22" s="11">
+        <v>999</v>
+      </c>
+      <c r="G22" s="11">
+        <v>89</v>
+      </c>
       <c r="H22">
         <v>96</v>
       </c>
@@ -1715,35 +1841,41 @@
       <c r="K22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="7">
         <v>32408</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="7">
         <v>43411</v>
       </c>
-      <c r="O22" s="10" t="s">
+      <c r="O22" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="E23" s="11">
+        <v>15</v>
+      </c>
+      <c r="F23" s="11">
+        <v>999</v>
+      </c>
+      <c r="G23" s="11">
+        <v>96</v>
+      </c>
       <c r="H23">
         <v>102</v>
       </c>
@@ -1756,28 +1888,34 @@
       <c r="K23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="8"/>
+      <c r="L23" s="7"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="8">
+      <c r="N23" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="E24" s="11">
+        <v>15</v>
+      </c>
+      <c r="F24" s="11">
+        <v>999</v>
+      </c>
+      <c r="G24" s="11">
+        <v>96</v>
+      </c>
       <c r="H24">
         <v>102</v>
       </c>
@@ -1790,28 +1928,34 @@
       <c r="K24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="8"/>
+      <c r="L24" s="7"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="8">
+      <c r="N24" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="E25" s="11">
+        <v>15</v>
+      </c>
+      <c r="F25" s="11">
+        <v>999</v>
+      </c>
+      <c r="G25" s="11">
+        <v>96</v>
+      </c>
       <c r="H25">
         <v>102</v>
       </c>
@@ -1824,28 +1968,34 @@
       <c r="K25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="8"/>
+      <c r="L25" s="7"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="8">
+      <c r="N25" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="E26" s="11">
+        <v>15</v>
+      </c>
+      <c r="F26" s="11">
+        <v>999</v>
+      </c>
+      <c r="G26" s="11">
+        <v>102</v>
+      </c>
       <c r="H26">
         <v>109</v>
       </c>
@@ -1858,35 +2008,41 @@
       <c r="K26" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="7">
         <v>35478</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="7">
         <v>43734</v>
       </c>
-      <c r="O26" s="10" t="s">
+      <c r="O26" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="E27" s="11">
+        <v>15</v>
+      </c>
+      <c r="F27" s="11">
+        <v>999</v>
+      </c>
+      <c r="G27" s="11">
+        <v>102</v>
+      </c>
       <c r="H27">
         <v>109</v>
       </c>
@@ -1899,35 +2055,41 @@
       <c r="K27" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="7">
         <v>35478</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="7">
         <v>43413</v>
       </c>
-      <c r="O27" s="10" t="s">
+      <c r="O27" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="E28" s="11">
+        <v>15</v>
+      </c>
+      <c r="F28" s="11">
+        <v>999</v>
+      </c>
+      <c r="G28" s="11">
+        <v>102</v>
+      </c>
       <c r="H28">
         <v>109</v>
       </c>
@@ -1940,35 +2102,41 @@
       <c r="K28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="7">
         <v>35478</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="7">
         <v>43413</v>
       </c>
-      <c r="O28" s="10" t="s">
+      <c r="O28" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="E29" s="11">
+        <v>15</v>
+      </c>
+      <c r="F29" s="11">
+        <v>999</v>
+      </c>
+      <c r="G29" s="11">
+        <v>109</v>
+      </c>
       <c r="H29">
         <v>999</v>
       </c>
@@ -1981,35 +2149,41 @@
       <c r="K29" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="7">
         <v>34244</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M29" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="7">
         <v>43735</v>
       </c>
-      <c r="O29" s="10" t="s">
+      <c r="O29" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="E30" s="11">
+        <v>15</v>
+      </c>
+      <c r="F30" s="11">
+        <v>999</v>
+      </c>
+      <c r="G30" s="11">
+        <v>109</v>
+      </c>
       <c r="H30">
         <v>999</v>
       </c>
@@ -2022,35 +2196,41 @@
       <c r="K30" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="7">
         <v>34244</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M30" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="7">
         <v>43735</v>
       </c>
-      <c r="O30" s="10" t="s">
+      <c r="O30" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="E31" s="11">
+        <v>15</v>
+      </c>
+      <c r="F31" s="11">
+        <v>999</v>
+      </c>
+      <c r="G31" s="11">
+        <v>109</v>
+      </c>
       <c r="H31">
         <v>999</v>
       </c>
@@ -2063,16 +2243,16 @@
       <c r="K31" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="7">
         <v>34244</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="M31" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="7">
         <v>43735</v>
       </c>
-      <c r="O31" s="10" t="s">
+      <c r="O31" s="9" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2085,8 +2265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FDBEFF-04C9-4852-9AC0-9D2FE026B313}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,36 +2274,36 @@
     <col min="1" max="2" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" customWidth="1"/>
-    <col min="11" max="11" width="37.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="14" style="10" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="14" style="9" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="12" t="s">
         <v>43</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -2144,27 +2324,33 @@
       <c r="N1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2">
+      <c r="E2" s="11">
+        <v>15</v>
+      </c>
+      <c r="F2" s="11">
+        <v>999</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11">
         <v>45</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -2176,29 +2362,35 @@
       <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3">
+      <c r="E3" s="11">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11">
+        <v>999</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
         <v>45</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -2210,29 +2402,35 @@
       <c r="K3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="8"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4">
+      <c r="E4" s="11">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11">
+        <v>999</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
         <v>45</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -2244,29 +2442,35 @@
       <c r="K4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="8"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5">
+      <c r="E5" s="11">
+        <v>15</v>
+      </c>
+      <c r="F5" s="11">
+        <v>999</v>
+      </c>
+      <c r="G5" s="11">
+        <v>45</v>
+      </c>
+      <c r="H5" s="11">
         <v>49</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -2278,36 +2482,42 @@
       <c r="K5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>35507</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <v>43652</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6">
+      <c r="E6" s="11">
+        <v>15</v>
+      </c>
+      <c r="F6" s="11">
+        <v>999</v>
+      </c>
+      <c r="G6" s="11">
+        <v>45</v>
+      </c>
+      <c r="H6" s="11">
         <v>49</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -2319,36 +2529,42 @@
       <c r="K6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>35817</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <v>43727</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7">
+      <c r="E7" s="11">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11">
+        <v>999</v>
+      </c>
+      <c r="G7" s="11">
+        <v>45</v>
+      </c>
+      <c r="H7" s="11">
         <v>49</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -2360,36 +2576,42 @@
       <c r="K7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>35817</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>43727</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8">
+      <c r="E8" s="11">
+        <v>15</v>
+      </c>
+      <c r="F8" s="11">
+        <v>999</v>
+      </c>
+      <c r="G8" s="11">
+        <v>49</v>
+      </c>
+      <c r="H8" s="11">
         <v>55</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -2401,36 +2623,42 @@
       <c r="K8" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>34086</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <v>43407</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9">
+      <c r="E9" s="11">
+        <v>15</v>
+      </c>
+      <c r="F9" s="11">
+        <v>999</v>
+      </c>
+      <c r="G9" s="11">
+        <v>49</v>
+      </c>
+      <c r="H9" s="11">
         <v>55</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -2442,36 +2670,42 @@
       <c r="K9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>34893</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <v>43728</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10">
+      <c r="E10" s="11">
+        <v>15</v>
+      </c>
+      <c r="F10" s="11">
+        <v>999</v>
+      </c>
+      <c r="G10" s="11">
+        <v>49</v>
+      </c>
+      <c r="H10" s="11">
         <v>55</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -2483,36 +2717,42 @@
       <c r="K10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>34893</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <v>43728</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11">
+      <c r="E11" s="11">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11">
+        <v>999</v>
+      </c>
+      <c r="G11" s="11">
+        <v>55</v>
+      </c>
+      <c r="H11" s="11">
         <v>59</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -2524,36 +2764,42 @@
       <c r="K11" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>34308</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <v>43729</v>
       </c>
-      <c r="O11" s="10" t="s">
+      <c r="O11" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12">
+      <c r="E12" s="11">
+        <v>15</v>
+      </c>
+      <c r="F12" s="11">
+        <v>999</v>
+      </c>
+      <c r="G12" s="11">
+        <v>55</v>
+      </c>
+      <c r="H12" s="11">
         <v>59</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -2565,36 +2811,42 @@
       <c r="K12" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>34299</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <v>43729</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="O12" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13">
+      <c r="E13" s="11">
+        <v>15</v>
+      </c>
+      <c r="F13" s="11">
+        <v>999</v>
+      </c>
+      <c r="G13" s="11">
+        <v>55</v>
+      </c>
+      <c r="H13" s="11">
         <v>59</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -2606,36 +2858,42 @@
       <c r="K13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>34299</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <v>43729</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="O13" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14">
+      <c r="E14" s="11">
+        <v>15</v>
+      </c>
+      <c r="F14" s="11">
+        <v>999</v>
+      </c>
+      <c r="G14" s="11">
+        <v>59</v>
+      </c>
+      <c r="H14" s="11">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -2647,36 +2905,42 @@
       <c r="K14" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>34014</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="7">
         <v>43810</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="O14" s="9" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15">
+      <c r="E15" s="11">
+        <v>15</v>
+      </c>
+      <c r="F15" s="11">
+        <v>999</v>
+      </c>
+      <c r="G15" s="11">
+        <v>59</v>
+      </c>
+      <c r="H15" s="11">
         <v>64</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -2688,36 +2952,42 @@
       <c r="K15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>34014</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <v>43730</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="O15" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16">
+      <c r="E16" s="11">
+        <v>15</v>
+      </c>
+      <c r="F16" s="11">
+        <v>999</v>
+      </c>
+      <c r="G16" s="11">
+        <v>59</v>
+      </c>
+      <c r="H16" s="11">
         <v>64</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -2729,36 +2999,42 @@
       <c r="K16" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <v>34014</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <v>43730</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="O16" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17">
+      <c r="E17" s="11">
+        <v>15</v>
+      </c>
+      <c r="F17" s="11">
+        <v>999</v>
+      </c>
+      <c r="G17" s="11">
+        <v>64</v>
+      </c>
+      <c r="H17" s="11">
         <v>71</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -2770,29 +3046,35 @@
       <c r="K17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="8"/>
+      <c r="L17" s="7"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18">
+      <c r="E18" s="11">
+        <v>15</v>
+      </c>
+      <c r="F18" s="11">
+        <v>999</v>
+      </c>
+      <c r="G18" s="11">
+        <v>64</v>
+      </c>
+      <c r="H18" s="11">
         <v>71</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -2804,36 +3086,42 @@
       <c r="K18" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <v>35212</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <v>43410</v>
       </c>
-      <c r="O18" s="10" t="s">
+      <c r="O18" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19">
+      <c r="E19" s="11">
+        <v>15</v>
+      </c>
+      <c r="F19" s="11">
+        <v>999</v>
+      </c>
+      <c r="G19" s="11">
+        <v>64</v>
+      </c>
+      <c r="H19" s="11">
         <v>71</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -2845,36 +3133,42 @@
       <c r="K19" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <v>35212</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="7">
         <v>43410</v>
       </c>
-      <c r="O19" s="10" t="s">
+      <c r="O19" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20">
+      <c r="E20" s="11">
+        <v>15</v>
+      </c>
+      <c r="F20" s="11">
+        <v>999</v>
+      </c>
+      <c r="G20" s="11">
+        <v>71</v>
+      </c>
+      <c r="H20" s="11">
         <v>76</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -2886,36 +3180,42 @@
       <c r="K20" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <v>34005</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="7">
         <v>43732</v>
       </c>
-      <c r="O20" s="10" t="s">
+      <c r="O20" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21">
+      <c r="E21" s="11">
+        <v>15</v>
+      </c>
+      <c r="F21" s="11">
+        <v>999</v>
+      </c>
+      <c r="G21" s="11">
+        <v>71</v>
+      </c>
+      <c r="H21" s="11">
         <v>76</v>
       </c>
       <c r="I21" s="4" t="s">
@@ -2927,36 +3227,42 @@
       <c r="K21" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="7">
         <v>35212</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="7">
         <v>43522</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="O21" s="9" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22">
+      <c r="E22" s="11">
+        <v>15</v>
+      </c>
+      <c r="F22" s="11">
+        <v>999</v>
+      </c>
+      <c r="G22" s="11">
+        <v>71</v>
+      </c>
+      <c r="H22" s="11">
         <v>76</v>
       </c>
       <c r="I22" s="4" t="s">
@@ -2968,36 +3274,42 @@
       <c r="K22" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="7">
         <v>34005</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="7">
         <v>43581</v>
       </c>
-      <c r="O22" s="10" t="s">
+      <c r="O22" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23">
+      <c r="E23" s="11">
+        <v>15</v>
+      </c>
+      <c r="F23" s="11">
+        <v>999</v>
+      </c>
+      <c r="G23" s="11">
+        <v>76</v>
+      </c>
+      <c r="H23" s="11">
         <v>81</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -3009,29 +3321,35 @@
       <c r="K23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="8"/>
+      <c r="L23" s="7"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="8">
+      <c r="N23" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24">
+      <c r="E24" s="11">
+        <v>15</v>
+      </c>
+      <c r="F24" s="11">
+        <v>999</v>
+      </c>
+      <c r="G24" s="11">
+        <v>76</v>
+      </c>
+      <c r="H24" s="11">
         <v>81</v>
       </c>
       <c r="I24" s="4" t="s">
@@ -3043,29 +3361,35 @@
       <c r="K24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="8"/>
+      <c r="L24" s="7"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="8">
+      <c r="N24" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25">
+      <c r="E25" s="11">
+        <v>15</v>
+      </c>
+      <c r="F25" s="11">
+        <v>999</v>
+      </c>
+      <c r="G25" s="11">
+        <v>76</v>
+      </c>
+      <c r="H25" s="11">
         <v>81</v>
       </c>
       <c r="I25" s="4" t="s">
@@ -3077,29 +3401,35 @@
       <c r="K25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="8"/>
+      <c r="L25" s="7"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="8">
+      <c r="N25" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26">
+      <c r="E26" s="11">
+        <v>15</v>
+      </c>
+      <c r="F26" s="11">
+        <v>999</v>
+      </c>
+      <c r="G26" s="11">
+        <v>81</v>
+      </c>
+      <c r="H26" s="11">
         <v>87</v>
       </c>
       <c r="I26" s="4" t="s">
@@ -3111,29 +3441,35 @@
       <c r="K26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="8"/>
+      <c r="L26" s="7"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="8">
+      <c r="N26" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27">
+      <c r="E27" s="11">
+        <v>15</v>
+      </c>
+      <c r="F27" s="11">
+        <v>999</v>
+      </c>
+      <c r="G27" s="11">
+        <v>81</v>
+      </c>
+      <c r="H27" s="11">
         <v>87</v>
       </c>
       <c r="I27" s="4" t="s">
@@ -3145,29 +3481,35 @@
       <c r="K27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="8"/>
+      <c r="L27" s="7"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="8">
+      <c r="N27" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28">
+      <c r="E28" s="11">
+        <v>15</v>
+      </c>
+      <c r="F28" s="11">
+        <v>999</v>
+      </c>
+      <c r="G28" s="11">
+        <v>81</v>
+      </c>
+      <c r="H28" s="11">
         <v>87</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -3179,29 +3521,35 @@
       <c r="K28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L28" s="8"/>
+      <c r="L28" s="7"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="8">
+      <c r="N28" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29">
+      <c r="E29" s="11">
+        <v>15</v>
+      </c>
+      <c r="F29" s="11">
+        <v>999</v>
+      </c>
+      <c r="G29" s="11">
+        <v>87</v>
+      </c>
+      <c r="H29" s="11">
         <v>999</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -3213,36 +3561,42 @@
       <c r="K29" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="7">
         <v>36590</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M29" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="7">
         <v>43583</v>
       </c>
-      <c r="O29" s="10" t="s">
+      <c r="O29" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30">
+      <c r="E30" s="11">
+        <v>15</v>
+      </c>
+      <c r="F30" s="11">
+        <v>999</v>
+      </c>
+      <c r="G30" s="11">
+        <v>87</v>
+      </c>
+      <c r="H30" s="11">
         <v>999</v>
       </c>
       <c r="I30" s="4" t="s">
@@ -3254,36 +3608,42 @@
       <c r="K30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="7">
         <v>36590</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M30" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="7">
         <v>43735</v>
       </c>
-      <c r="O30" s="10" t="s">
+      <c r="O30" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31">
+      <c r="E31" s="11">
+        <v>15</v>
+      </c>
+      <c r="F31" s="11">
+        <v>999</v>
+      </c>
+      <c r="G31" s="11">
+        <v>87</v>
+      </c>
+      <c r="H31" s="11">
         <v>999</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -3295,16 +3655,16 @@
       <c r="K31" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="7">
         <v>36590</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="M31" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="7">
         <v>43735</v>
       </c>
-      <c r="O31" s="10" t="s">
+      <c r="O31" s="9" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3318,7 +3678,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3327,35 +3687,35 @@
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" customWidth="1"/>
     <col min="11" max="11" width="39.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="14" style="10" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="14" style="9" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="12" t="s">
         <v>43</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -3376,26 +3736,32 @@
       <c r="N1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
       <c r="H2">
         <v>55</v>
       </c>
@@ -3408,28 +3774,34 @@
       <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
       <c r="H3">
         <v>55</v>
       </c>
@@ -3442,28 +3814,34 @@
       <c r="K3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="8"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
       <c r="H4">
         <v>55</v>
       </c>
@@ -3476,28 +3854,34 @@
       <c r="K4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="8"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5" s="11">
+        <v>55</v>
+      </c>
       <c r="H5">
         <v>61</v>
       </c>
@@ -3510,35 +3894,41 @@
       <c r="K5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>36231</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <v>43407</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6" s="11">
+        <v>55</v>
+      </c>
       <c r="H6">
         <v>61</v>
       </c>
@@ -3551,35 +3941,41 @@
       <c r="K6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>36328</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <v>43760</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7" s="11">
+        <v>55</v>
+      </c>
       <c r="H7">
         <v>61</v>
       </c>
@@ -3592,35 +3988,41 @@
       <c r="K7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>36231</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>43407</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8" s="11">
+        <v>61</v>
+      </c>
       <c r="H8">
         <v>67</v>
       </c>
@@ -3633,35 +4035,41 @@
       <c r="K8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>36231</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <v>43728</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9" s="11">
+        <v>61</v>
+      </c>
       <c r="H9">
         <v>67</v>
       </c>
@@ -3674,35 +4082,41 @@
       <c r="K9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>36231</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <v>43728</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10" s="11">
+        <v>61</v>
+      </c>
       <c r="H10">
         <v>67</v>
       </c>
@@ -3715,35 +4129,41 @@
       <c r="K10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>36231</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <v>43728</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11" s="11">
+        <v>67</v>
+      </c>
       <c r="H11">
         <v>73</v>
       </c>
@@ -3756,35 +4176,41 @@
       <c r="K11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>36683</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <v>43643</v>
       </c>
-      <c r="O11" s="10" t="s">
+      <c r="O11" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12" s="11">
+        <v>67</v>
+      </c>
       <c r="H12">
         <v>73</v>
       </c>
@@ -3797,35 +4223,41 @@
       <c r="K12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>36683</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <v>43643</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="O12" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13" s="11">
+        <v>67</v>
+      </c>
       <c r="H13">
         <v>73</v>
       </c>
@@ -3838,35 +4270,41 @@
       <c r="K13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>36683</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <v>43643</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="O13" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14" s="11">
+        <v>73</v>
+      </c>
       <c r="H14">
         <v>81</v>
       </c>
@@ -3879,35 +4317,41 @@
       <c r="K14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>35838</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="7">
         <v>43409</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="O14" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15" s="11">
+        <v>73</v>
+      </c>
       <c r="H15">
         <v>81</v>
       </c>
@@ -3920,35 +4364,41 @@
       <c r="K15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>35838</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <v>43409</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="O15" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16" s="11">
+        <v>73</v>
+      </c>
       <c r="H16">
         <v>81</v>
       </c>
@@ -3961,35 +4411,41 @@
       <c r="K16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <v>35838</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <v>43409</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="O16" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17" s="11">
+        <v>81</v>
+      </c>
       <c r="H17">
         <v>89</v>
       </c>
@@ -4002,35 +4458,41 @@
       <c r="K17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <v>36292</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <v>43762</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="O17" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18" s="11">
+        <v>81</v>
+      </c>
       <c r="H18">
         <v>89</v>
       </c>
@@ -4043,35 +4505,41 @@
       <c r="K18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <v>36441</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <v>43410</v>
       </c>
-      <c r="O18" s="10" t="s">
+      <c r="O18" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19" s="11">
+        <v>81</v>
+      </c>
       <c r="H19">
         <v>89</v>
       </c>
@@ -4084,35 +4552,41 @@
       <c r="K19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <v>36084</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="7">
         <v>43410</v>
       </c>
-      <c r="O19" s="10" t="s">
+      <c r="O19" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20" s="11">
+        <v>89</v>
+      </c>
       <c r="H20">
         <v>96</v>
       </c>
@@ -4125,35 +4599,41 @@
       <c r="K20" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <v>36103</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="7">
         <v>43411</v>
       </c>
-      <c r="O20" s="10" t="s">
+      <c r="O20" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" t="s">
         <v>125</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21" s="11">
+        <v>89</v>
+      </c>
       <c r="H21">
         <v>96</v>
       </c>
@@ -4166,35 +4646,41 @@
       <c r="K21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="7">
         <v>35950</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="7">
         <v>43455</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="O21" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22" s="11">
+        <v>89</v>
+      </c>
       <c r="H22">
         <v>96</v>
       </c>
@@ -4207,35 +4693,41 @@
       <c r="K22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="7">
         <v>35950</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="7">
         <v>43455</v>
       </c>
-      <c r="O22" s="10" t="s">
+      <c r="O22" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" s="11">
+        <v>96</v>
+      </c>
       <c r="H23">
         <v>102</v>
       </c>
@@ -4248,35 +4740,41 @@
       <c r="K23" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="7">
         <v>36441</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="7">
         <v>43412</v>
       </c>
-      <c r="O23" s="10" t="s">
+      <c r="O23" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" t="s">
         <v>124</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24" s="11">
+        <v>96</v>
+      </c>
       <c r="H24">
         <v>102</v>
       </c>
@@ -4289,28 +4787,34 @@
       <c r="K24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="8"/>
+      <c r="L24" s="7"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="8">
+      <c r="N24" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25" s="11">
+        <v>96</v>
+      </c>
       <c r="H25">
         <v>102</v>
       </c>
@@ -4323,35 +4827,41 @@
       <c r="K25" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="7">
         <v>36441</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="7">
         <v>43412</v>
       </c>
-      <c r="O25" s="10" t="s">
+      <c r="O25" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" t="s">
         <v>124</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26" s="11">
+        <v>102</v>
+      </c>
       <c r="H26">
         <v>109</v>
       </c>
@@ -4364,35 +4874,41 @@
       <c r="K26" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="7">
         <v>36441</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="M26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="7">
         <v>43734</v>
       </c>
-      <c r="O26" s="10" t="s">
+      <c r="O26" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="E27">
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27" s="11">
+        <v>102</v>
+      </c>
       <c r="H27">
         <v>109</v>
       </c>
@@ -4405,35 +4921,41 @@
       <c r="K27" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="7">
         <v>36441</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="M27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="7">
         <v>43734</v>
       </c>
-      <c r="O27" s="10" t="s">
+      <c r="O27" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="E28">
+        <v>15</v>
+      </c>
+      <c r="F28">
+        <v>20</v>
+      </c>
+      <c r="G28" s="11">
+        <v>102</v>
+      </c>
       <c r="H28">
         <v>109</v>
       </c>
@@ -4446,35 +4968,41 @@
       <c r="K28" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="7">
         <v>36441</v>
       </c>
-      <c r="M28" s="7" t="s">
+      <c r="M28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="7">
         <v>43734</v>
       </c>
-      <c r="O28" s="10" t="s">
+      <c r="O28" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="E29">
+        <v>15</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
+      <c r="G29" s="11">
+        <v>109</v>
+      </c>
       <c r="H29">
         <v>999</v>
       </c>
@@ -4487,35 +5015,41 @@
       <c r="K29" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="7">
         <v>36241</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="7">
         <v>43414</v>
       </c>
-      <c r="O29" s="10" t="s">
+      <c r="O29" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="E30">
+        <v>15</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30" s="11">
+        <v>109</v>
+      </c>
       <c r="H30">
         <v>999</v>
       </c>
@@ -4528,35 +5062,41 @@
       <c r="K30" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="7">
         <v>36241</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="7">
         <v>43583</v>
       </c>
-      <c r="O30" s="10" t="s">
+      <c r="O30" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31" s="11">
+        <v>109</v>
+      </c>
       <c r="H31">
         <v>999</v>
       </c>
@@ -4569,16 +5109,16 @@
       <c r="K31" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="7">
         <v>36241</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="M31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="7">
         <v>43583</v>
       </c>
-      <c r="O31" s="10" t="s">
+      <c r="O31" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4592,7 +5132,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4601,35 +5141,35 @@
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" customWidth="1"/>
     <col min="11" max="11" width="37.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="14" style="10" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="14" style="9" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="12" t="s">
         <v>43</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -4650,16 +5190,16 @@
       <c r="N1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>125</v>
@@ -4667,10 +5207,16 @@
       <c r="D2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2">
+      <c r="E2" s="5">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <v>20</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11">
         <v>45</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -4682,18 +5228,18 @@
       <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>125</v>
@@ -4701,10 +5247,16 @@
       <c r="D3" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3">
+      <c r="E3" s="5">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5">
+        <v>20</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
         <v>45</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -4716,25 +5268,25 @@
       <c r="K3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>35907</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <v>43406</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>125</v>
@@ -4742,10 +5294,16 @@
       <c r="D4" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4">
+      <c r="E4" s="5">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
         <v>45</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -4757,25 +5315,25 @@
       <c r="K4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>35907</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <v>43406</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>125</v>
@@ -4783,10 +5341,16 @@
       <c r="D5" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5">
+      <c r="E5" s="5">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5">
+        <v>20</v>
+      </c>
+      <c r="G5" s="11">
+        <v>45</v>
+      </c>
+      <c r="H5" s="11">
         <v>49</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -4798,25 +5362,25 @@
       <c r="K5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>35817</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <v>43407</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>125</v>
@@ -4824,10 +5388,16 @@
       <c r="D6" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6">
+      <c r="E6" s="5">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5">
+        <v>20</v>
+      </c>
+      <c r="G6" s="11">
+        <v>45</v>
+      </c>
+      <c r="H6" s="11">
         <v>49</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -4839,25 +5409,25 @@
       <c r="K6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>35817</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <v>43407</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>125</v>
@@ -4865,10 +5435,16 @@
       <c r="D7" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7">
+      <c r="E7" s="5">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5">
+        <v>20</v>
+      </c>
+      <c r="G7" s="11">
+        <v>45</v>
+      </c>
+      <c r="H7" s="11">
         <v>49</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -4880,25 +5456,25 @@
       <c r="K7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>35817</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>43407</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>125</v>
@@ -4906,10 +5482,16 @@
       <c r="D8" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8">
+      <c r="E8" s="5">
+        <v>15</v>
+      </c>
+      <c r="F8" s="5">
+        <v>20</v>
+      </c>
+      <c r="G8" s="11">
+        <v>49</v>
+      </c>
+      <c r="H8" s="11">
         <v>55</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -4921,25 +5503,25 @@
       <c r="K8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>35920</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <v>43407</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>125</v>
@@ -4947,10 +5529,16 @@
       <c r="D9" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9">
+      <c r="E9" s="5">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5">
+        <v>20</v>
+      </c>
+      <c r="G9" s="11">
+        <v>49</v>
+      </c>
+      <c r="H9" s="11">
         <v>55</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -4962,25 +5550,25 @@
       <c r="K9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>36746</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <v>43761</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>125</v>
@@ -4988,10 +5576,16 @@
       <c r="D10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10">
+      <c r="E10" s="5">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5">
+        <v>20</v>
+      </c>
+      <c r="G10" s="11">
+        <v>49</v>
+      </c>
+      <c r="H10" s="11">
         <v>55</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -5003,25 +5597,25 @@
       <c r="K10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>35920</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <v>43407</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>125</v>
@@ -5029,10 +5623,16 @@
       <c r="D11" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11">
+      <c r="E11" s="5">
+        <v>15</v>
+      </c>
+      <c r="F11" s="5">
+        <v>20</v>
+      </c>
+      <c r="G11" s="11">
+        <v>55</v>
+      </c>
+      <c r="H11" s="11">
         <v>59</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -5044,25 +5644,25 @@
       <c r="K11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>36478</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <v>43504</v>
       </c>
-      <c r="O11" s="10" t="s">
+      <c r="O11" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>125</v>
@@ -5070,10 +5670,16 @@
       <c r="D12" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12">
+      <c r="E12" s="5">
+        <v>15</v>
+      </c>
+      <c r="F12" s="5">
+        <v>20</v>
+      </c>
+      <c r="G12" s="11">
+        <v>55</v>
+      </c>
+      <c r="H12" s="11">
         <v>59</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -5085,25 +5691,25 @@
       <c r="K12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>37829</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <v>43761</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="O12" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>125</v>
@@ -5111,10 +5717,16 @@
       <c r="D13" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13">
+      <c r="E13" s="5">
+        <v>15</v>
+      </c>
+      <c r="F13" s="5">
+        <v>20</v>
+      </c>
+      <c r="G13" s="11">
+        <v>55</v>
+      </c>
+      <c r="H13" s="11">
         <v>59</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -5126,25 +5738,25 @@
       <c r="K13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>37829</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <v>43761</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="O13" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>125</v>
@@ -5152,10 +5764,16 @@
       <c r="D14" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14">
+      <c r="E14" s="5">
+        <v>15</v>
+      </c>
+      <c r="F14" s="5">
+        <v>20</v>
+      </c>
+      <c r="G14" s="11">
+        <v>59</v>
+      </c>
+      <c r="H14" s="11">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -5167,25 +5785,25 @@
       <c r="K14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>36176</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="7">
         <v>43771</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="O14" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>125</v>
@@ -5193,10 +5811,16 @@
       <c r="D15" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15">
+      <c r="E15" s="5">
+        <v>15</v>
+      </c>
+      <c r="F15" s="5">
+        <v>20</v>
+      </c>
+      <c r="G15" s="11">
+        <v>59</v>
+      </c>
+      <c r="H15" s="11">
         <v>64</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -5208,25 +5832,25 @@
       <c r="K15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>36176</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <v>43504</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="O15" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>125</v>
@@ -5234,10 +5858,16 @@
       <c r="D16" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16">
+      <c r="E16" s="5">
+        <v>15</v>
+      </c>
+      <c r="F16" s="5">
+        <v>20</v>
+      </c>
+      <c r="G16" s="11">
+        <v>59</v>
+      </c>
+      <c r="H16" s="11">
         <v>64</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -5249,25 +5879,25 @@
       <c r="K16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <v>36176</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <v>43504</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="O16" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>125</v>
@@ -5275,10 +5905,16 @@
       <c r="D17" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17">
+      <c r="E17" s="5">
+        <v>15</v>
+      </c>
+      <c r="F17" s="5">
+        <v>20</v>
+      </c>
+      <c r="G17" s="11">
+        <v>64</v>
+      </c>
+      <c r="H17" s="11">
         <v>71</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -5290,25 +5926,25 @@
       <c r="K17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <v>36165</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <v>43731</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="O17" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>125</v>
@@ -5316,10 +5952,16 @@
       <c r="D18" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18">
+      <c r="E18" s="5">
+        <v>15</v>
+      </c>
+      <c r="F18" s="5">
+        <v>20</v>
+      </c>
+      <c r="G18" s="11">
+        <v>64</v>
+      </c>
+      <c r="H18" s="11">
         <v>71</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -5331,25 +5973,25 @@
       <c r="K18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <v>35796</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <v>43410</v>
       </c>
-      <c r="O18" s="10" t="s">
+      <c r="O18" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>125</v>
@@ -5357,10 +5999,16 @@
       <c r="D19" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19">
+      <c r="E19" s="5">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5">
+        <v>20</v>
+      </c>
+      <c r="G19" s="11">
+        <v>64</v>
+      </c>
+      <c r="H19" s="11">
         <v>71</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -5372,25 +6020,25 @@
       <c r="K19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <v>35796</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="7">
         <v>43410</v>
       </c>
-      <c r="O19" s="10" t="s">
+      <c r="O19" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>125</v>
@@ -5398,10 +6046,16 @@
       <c r="D20" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20">
+      <c r="E20" s="5">
+        <v>15</v>
+      </c>
+      <c r="F20" s="5">
+        <v>20</v>
+      </c>
+      <c r="G20" s="11">
+        <v>71</v>
+      </c>
+      <c r="H20" s="11">
         <v>76</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -5413,25 +6067,25 @@
       <c r="K20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <v>35927</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="7">
         <v>43411</v>
       </c>
-      <c r="O20" s="10" t="s">
+      <c r="O20" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>125</v>
@@ -5439,10 +6093,16 @@
       <c r="D21" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21">
+      <c r="E21" s="5">
+        <v>15</v>
+      </c>
+      <c r="F21" s="5">
+        <v>20</v>
+      </c>
+      <c r="G21" s="11">
+        <v>71</v>
+      </c>
+      <c r="H21" s="11">
         <v>76</v>
       </c>
       <c r="I21" s="4" t="s">
@@ -5454,25 +6114,25 @@
       <c r="K21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="7">
         <v>35927</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="7">
         <v>43411</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="O21" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>125</v>
@@ -5480,10 +6140,16 @@
       <c r="D22" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22">
+      <c r="E22" s="5">
+        <v>15</v>
+      </c>
+      <c r="F22" s="5">
+        <v>20</v>
+      </c>
+      <c r="G22" s="11">
+        <v>71</v>
+      </c>
+      <c r="H22" s="11">
         <v>76</v>
       </c>
       <c r="I22" s="4" t="s">
@@ -5495,25 +6161,25 @@
       <c r="K22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="7">
         <v>35927</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="7">
         <v>43411</v>
       </c>
-      <c r="O22" s="10" t="s">
+      <c r="O22" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>125</v>
@@ -5521,10 +6187,16 @@
       <c r="D23" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23">
+      <c r="E23" s="5">
+        <v>15</v>
+      </c>
+      <c r="F23" s="5">
+        <v>20</v>
+      </c>
+      <c r="G23" s="11">
+        <v>76</v>
+      </c>
+      <c r="H23" s="11">
         <v>81</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -5536,18 +6208,18 @@
       <c r="K23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="8"/>
+      <c r="L23" s="7"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="8">
+      <c r="N23" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>125</v>
@@ -5555,10 +6227,16 @@
       <c r="D24" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24">
+      <c r="E24" s="5">
+        <v>15</v>
+      </c>
+      <c r="F24" s="5">
+        <v>20</v>
+      </c>
+      <c r="G24" s="11">
+        <v>76</v>
+      </c>
+      <c r="H24" s="11">
         <v>81</v>
       </c>
       <c r="I24" s="4" t="s">
@@ -5570,25 +6248,25 @@
       <c r="K24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="7">
         <v>36421</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="7">
         <v>43811</v>
       </c>
-      <c r="O24" s="10" t="s">
+      <c r="O24" s="9" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>125</v>
@@ -5596,10 +6274,16 @@
       <c r="D25" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25">
+      <c r="E25" s="5">
+        <v>15</v>
+      </c>
+      <c r="F25" s="5">
+        <v>20</v>
+      </c>
+      <c r="G25" s="11">
+        <v>76</v>
+      </c>
+      <c r="H25" s="11">
         <v>81</v>
       </c>
       <c r="I25" s="4" t="s">
@@ -5611,25 +6295,25 @@
       <c r="K25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="7">
         <v>36421</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="7">
         <v>43811</v>
       </c>
-      <c r="O25" s="10" t="s">
+      <c r="O25" s="9" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>125</v>
@@ -5637,10 +6321,16 @@
       <c r="D26" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26">
+      <c r="E26" s="5">
+        <v>15</v>
+      </c>
+      <c r="F26" s="5">
+        <v>20</v>
+      </c>
+      <c r="G26" s="11">
+        <v>81</v>
+      </c>
+      <c r="H26" s="11">
         <v>87</v>
       </c>
       <c r="I26" s="4" t="s">
@@ -5652,18 +6342,18 @@
       <c r="K26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="8"/>
+      <c r="L26" s="7"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="8">
+      <c r="N26" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>125</v>
@@ -5671,10 +6361,16 @@
       <c r="D27" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27">
+      <c r="E27" s="5">
+        <v>15</v>
+      </c>
+      <c r="F27" s="5">
+        <v>20</v>
+      </c>
+      <c r="G27" s="11">
+        <v>81</v>
+      </c>
+      <c r="H27" s="11">
         <v>87</v>
       </c>
       <c r="I27" s="4" t="s">
@@ -5686,25 +6382,25 @@
       <c r="K27" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="7">
         <v>36421</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="M27" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="7">
         <v>43779</v>
       </c>
-      <c r="O27" s="10" t="s">
+      <c r="O27" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>125</v>
@@ -5712,10 +6408,16 @@
       <c r="D28" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28">
+      <c r="E28" s="5">
+        <v>15</v>
+      </c>
+      <c r="F28" s="5">
+        <v>20</v>
+      </c>
+      <c r="G28" s="11">
+        <v>81</v>
+      </c>
+      <c r="H28" s="11">
         <v>87</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -5727,18 +6429,18 @@
       <c r="K28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L28" s="8"/>
+      <c r="L28" s="7"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="8">
+      <c r="N28" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>125</v>
@@ -5746,10 +6448,16 @@
       <c r="D29" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29">
+      <c r="E29" s="5">
+        <v>15</v>
+      </c>
+      <c r="F29" s="5">
+        <v>20</v>
+      </c>
+      <c r="G29" s="11">
+        <v>87</v>
+      </c>
+      <c r="H29" s="11">
         <v>999</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -5761,25 +6469,25 @@
       <c r="K29" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="7">
         <v>36590</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M29" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="7">
         <v>43583</v>
       </c>
-      <c r="O29" s="10" t="s">
+      <c r="O29" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>125</v>
@@ -5787,10 +6495,16 @@
       <c r="D30" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30">
+      <c r="E30" s="5">
+        <v>15</v>
+      </c>
+      <c r="F30" s="5">
+        <v>20</v>
+      </c>
+      <c r="G30" s="11">
+        <v>87</v>
+      </c>
+      <c r="H30" s="11">
         <v>999</v>
       </c>
       <c r="I30" s="4" t="s">
@@ -5802,25 +6516,25 @@
       <c r="K30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="7">
         <v>36590</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M30" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="7">
         <v>43735</v>
       </c>
-      <c r="O30" s="10" t="s">
+      <c r="O30" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>125</v>
@@ -5828,10 +6542,16 @@
       <c r="D31" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31">
+      <c r="E31" s="5">
+        <v>15</v>
+      </c>
+      <c r="F31" s="5">
+        <v>20</v>
+      </c>
+      <c r="G31" s="11">
+        <v>87</v>
+      </c>
+      <c r="H31" s="11">
         <v>999</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -5843,16 +6563,16 @@
       <c r="K31" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="7">
         <v>36590</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="M31" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="7">
         <v>43735</v>
       </c>
-      <c r="O31" s="10" t="s">
+      <c r="O31" s="9" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5863,87 +6583,95 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5036E02-9AD8-4E7E-B5E3-C8210C7AB144}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B31"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12.28515625" style="5" customWidth="1"/>
-    <col min="3" max="8" width="9.140625" style="5"/>
     <col min="9" max="9" width="17.7109375" style="5" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" style="5" customWidth="1"/>
     <col min="11" max="11" width="37.28515625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="9" customWidth="1"/>
-    <col min="13" max="13" width="14" style="9" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="14" style="8" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" style="8" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="6">
+      <c r="E2" s="11">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11">
+        <v>17</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
         <v>49</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -5955,33 +6683,42 @@
       <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>37713</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <v>43759</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="6">
+      <c r="E3" s="11">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11">
+        <v>17</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
         <v>49</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -5993,33 +6730,42 @@
       <c r="K3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>37996</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="8">
+      <c r="M3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="7">
         <v>43532</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="6">
+      <c r="E4" s="11">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11">
+        <v>17</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
         <v>49</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -6031,33 +6777,42 @@
       <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>37713</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <v>43759</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="6">
+      <c r="E5" s="11">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11">
+        <v>17</v>
+      </c>
+      <c r="G5" s="13">
+        <v>49</v>
+      </c>
+      <c r="H5" s="13">
         <v>55</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -6069,33 +6824,42 @@
       <c r="K5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>37996</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="8">
+      <c r="M5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="7">
         <v>43876</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H6" s="6">
+      <c r="E6" s="11">
+        <v>13</v>
+      </c>
+      <c r="F6" s="11">
+        <v>17</v>
+      </c>
+      <c r="G6" s="13">
+        <v>49</v>
+      </c>
+      <c r="H6" s="13">
         <v>55</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -6107,33 +6871,42 @@
       <c r="K6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>37085</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <v>43406</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="6">
+      <c r="E7" s="11">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11">
+        <v>17</v>
+      </c>
+      <c r="G7" s="13">
+        <v>49</v>
+      </c>
+      <c r="H7" s="13">
         <v>55</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -6145,33 +6918,42 @@
       <c r="K7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>37085</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>43406</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="6">
+      <c r="E8" s="11">
+        <v>13</v>
+      </c>
+      <c r="F8" s="11">
+        <v>17</v>
+      </c>
+      <c r="G8" s="11">
+        <v>55</v>
+      </c>
+      <c r="H8" s="13">
         <v>61</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -6183,33 +6965,42 @@
       <c r="K8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>37600</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <v>43618</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H9" s="6">
+      <c r="E9" s="11">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11">
+        <v>17</v>
+      </c>
+      <c r="G9" s="11">
+        <v>55</v>
+      </c>
+      <c r="H9" s="13">
         <v>61</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -6221,33 +7012,42 @@
       <c r="K9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>37762</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <v>43876</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="6">
+      <c r="E10" s="11">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11">
+        <v>17</v>
+      </c>
+      <c r="G10" s="11">
+        <v>55</v>
+      </c>
+      <c r="H10" s="13">
         <v>61</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -6259,33 +7059,42 @@
       <c r="K10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>37762</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <v>43876</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="6">
+      <c r="E11" s="11">
+        <v>13</v>
+      </c>
+      <c r="F11" s="11">
+        <v>17</v>
+      </c>
+      <c r="G11" s="11">
+        <v>61</v>
+      </c>
+      <c r="H11" s="13">
         <v>67</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -6297,33 +7106,42 @@
       <c r="K11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>37555</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <v>43819</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="6">
+      <c r="E12" s="11">
+        <v>13</v>
+      </c>
+      <c r="F12" s="11">
+        <v>17</v>
+      </c>
+      <c r="G12" s="11">
+        <v>61</v>
+      </c>
+      <c r="H12" s="13">
         <v>67</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -6335,33 +7153,42 @@
       <c r="K12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>37555</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <v>43819</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H13" s="6">
+      <c r="E13" s="11">
+        <v>13</v>
+      </c>
+      <c r="F13" s="11">
+        <v>17</v>
+      </c>
+      <c r="G13" s="11">
+        <v>61</v>
+      </c>
+      <c r="H13" s="13">
         <v>67</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -6373,33 +7200,42 @@
       <c r="K13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>37555</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <v>43819</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="6">
+      <c r="E14" s="11">
+        <v>13</v>
+      </c>
+      <c r="F14" s="11">
+        <v>17</v>
+      </c>
+      <c r="G14" s="11">
+        <v>67</v>
+      </c>
+      <c r="H14" s="13">
         <v>73</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -6411,33 +7247,42 @@
       <c r="K14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>37762</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="7">
         <v>43877</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="6">
+      <c r="E15" s="11">
+        <v>13</v>
+      </c>
+      <c r="F15" s="11">
+        <v>17</v>
+      </c>
+      <c r="G15" s="11">
+        <v>67</v>
+      </c>
+      <c r="H15" s="13">
         <v>73</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -6449,26 +7294,35 @@
       <c r="K15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="8">
+      <c r="L15" s="7"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="6">
+      <c r="E16" s="11">
+        <v>13</v>
+      </c>
+      <c r="F16" s="11">
+        <v>17</v>
+      </c>
+      <c r="G16" s="11">
+        <v>67</v>
+      </c>
+      <c r="H16" s="13">
         <v>73</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -6480,33 +7334,42 @@
       <c r="K16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <v>37762</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <v>43877</v>
       </c>
-      <c r="O16" s="9" t="s">
+      <c r="O16" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="6">
+      <c r="E17" s="11">
+        <v>13</v>
+      </c>
+      <c r="F17" s="11">
+        <v>17</v>
+      </c>
+      <c r="G17" s="11">
+        <v>73</v>
+      </c>
+      <c r="H17" s="13">
         <v>81</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -6518,26 +7381,35 @@
       <c r="K17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="8">
+      <c r="L17" s="7"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="6">
+      <c r="E18" s="11">
+        <v>13</v>
+      </c>
+      <c r="F18" s="11">
+        <v>17</v>
+      </c>
+      <c r="G18" s="11">
+        <v>73</v>
+      </c>
+      <c r="H18" s="13">
         <v>81</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -6549,26 +7421,35 @@
       <c r="K18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="8">
+      <c r="L18" s="7"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="6">
+      <c r="E19" s="11">
+        <v>13</v>
+      </c>
+      <c r="F19" s="11">
+        <v>17</v>
+      </c>
+      <c r="G19" s="11">
+        <v>73</v>
+      </c>
+      <c r="H19" s="13">
         <v>81</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -6580,26 +7461,35 @@
       <c r="K19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="8">
+      <c r="L19" s="7"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H20" s="6">
+      <c r="E20" s="11">
+        <v>13</v>
+      </c>
+      <c r="F20" s="11">
+        <v>17</v>
+      </c>
+      <c r="G20" s="11">
+        <v>81</v>
+      </c>
+      <c r="H20" s="13">
         <v>89</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -6611,33 +7501,42 @@
       <c r="K20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <v>37422</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="7">
         <v>43812</v>
       </c>
-      <c r="O20" s="9" t="s">
+      <c r="O20" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H21" s="6">
+      <c r="E21" s="11">
+        <v>13</v>
+      </c>
+      <c r="F21" s="11">
+        <v>17</v>
+      </c>
+      <c r="G21" s="11">
+        <v>81</v>
+      </c>
+      <c r="H21" s="13">
         <v>89</v>
       </c>
       <c r="I21" s="4" t="s">
@@ -6649,33 +7548,42 @@
       <c r="K21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="7">
         <v>37422</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="7">
         <v>43812</v>
       </c>
-      <c r="O21" s="9" t="s">
+      <c r="O21" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H22" s="6">
+      <c r="E22" s="11">
+        <v>13</v>
+      </c>
+      <c r="F22" s="11">
+        <v>17</v>
+      </c>
+      <c r="G22" s="11">
+        <v>81</v>
+      </c>
+      <c r="H22" s="13">
         <v>89</v>
       </c>
       <c r="I22" s="4" t="s">
@@ -6687,33 +7595,42 @@
       <c r="K22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="7">
         <v>37422</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="7">
         <v>43812</v>
       </c>
-      <c r="O22" s="9" t="s">
+      <c r="O22" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H23" s="6">
+      <c r="E23" s="11">
+        <v>13</v>
+      </c>
+      <c r="F23" s="11">
+        <v>17</v>
+      </c>
+      <c r="G23" s="11">
+        <v>89</v>
+      </c>
+      <c r="H23" s="13">
         <v>96</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -6725,33 +7642,42 @@
       <c r="K23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="7">
         <v>37446</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="7">
         <v>43812</v>
       </c>
-      <c r="O23" s="9" t="s">
+      <c r="O23" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="6">
+      <c r="E24" s="11">
+        <v>13</v>
+      </c>
+      <c r="F24" s="11">
+        <v>17</v>
+      </c>
+      <c r="G24" s="11">
+        <v>89</v>
+      </c>
+      <c r="H24" s="13">
         <v>96</v>
       </c>
       <c r="I24" s="4" t="s">
@@ -6763,33 +7689,42 @@
       <c r="K24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="7">
         <v>38000</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="7">
         <v>43764</v>
       </c>
-      <c r="O24" s="9" t="s">
+      <c r="O24" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H25" s="6">
+      <c r="E25" s="11">
+        <v>13</v>
+      </c>
+      <c r="F25" s="11">
+        <v>17</v>
+      </c>
+      <c r="G25" s="11">
+        <v>89</v>
+      </c>
+      <c r="H25" s="13">
         <v>96</v>
       </c>
       <c r="I25" s="4" t="s">
@@ -6801,33 +7736,42 @@
       <c r="K25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="7">
         <v>37446</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="7">
         <v>43763</v>
       </c>
-      <c r="O25" s="9" t="s">
+      <c r="O25" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H26" s="6">
+      <c r="E26" s="11">
+        <v>13</v>
+      </c>
+      <c r="F26" s="11">
+        <v>17</v>
+      </c>
+      <c r="G26" s="11">
+        <v>96</v>
+      </c>
+      <c r="H26" s="13">
         <v>102</v>
       </c>
       <c r="I26" s="4" t="s">
@@ -6839,33 +7783,42 @@
       <c r="K26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="7">
         <v>37268</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="M26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="7">
         <v>43813</v>
       </c>
-      <c r="O26" s="9" t="s">
+      <c r="O26" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="6">
+      <c r="E27" s="11">
+        <v>13</v>
+      </c>
+      <c r="F27" s="11">
+        <v>17</v>
+      </c>
+      <c r="G27" s="11">
+        <v>96</v>
+      </c>
+      <c r="H27" s="13">
         <v>102</v>
       </c>
       <c r="I27" s="4" t="s">
@@ -6877,33 +7830,42 @@
       <c r="K27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="7">
         <v>37268</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="M27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="7">
         <v>43813</v>
       </c>
-      <c r="O27" s="9" t="s">
+      <c r="O27" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H28" s="6">
+      <c r="E28" s="11">
+        <v>13</v>
+      </c>
+      <c r="F28" s="11">
+        <v>17</v>
+      </c>
+      <c r="G28" s="11">
+        <v>96</v>
+      </c>
+      <c r="H28" s="13">
         <v>102</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -6915,33 +7877,42 @@
       <c r="K28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="7">
         <v>37268</v>
       </c>
-      <c r="M28" s="7" t="s">
+      <c r="M28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="7">
         <v>43813</v>
       </c>
-      <c r="O28" s="9" t="s">
+      <c r="O28" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H29" s="6">
+      <c r="E29" s="11">
+        <v>13</v>
+      </c>
+      <c r="F29" s="11">
+        <v>17</v>
+      </c>
+      <c r="G29" s="11">
+        <v>102</v>
+      </c>
+      <c r="H29" s="13">
         <v>999</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -6953,33 +7924,42 @@
       <c r="K29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="7">
         <v>37860</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="7">
         <v>43624</v>
       </c>
-      <c r="O29" s="9" t="s">
+      <c r="O29" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H30" s="6">
+      <c r="E30" s="11">
+        <v>13</v>
+      </c>
+      <c r="F30" s="11">
+        <v>17</v>
+      </c>
+      <c r="G30" s="11">
+        <v>102</v>
+      </c>
+      <c r="H30" s="13">
         <v>999</v>
       </c>
       <c r="I30" s="4" t="s">
@@ -6991,33 +7971,42 @@
       <c r="K30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="7">
         <v>37860</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="7">
         <v>43624</v>
       </c>
-      <c r="O30" s="9" t="s">
+      <c r="O30" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="6">
+      <c r="E31" s="11">
+        <v>13</v>
+      </c>
+      <c r="F31" s="11">
+        <v>17</v>
+      </c>
+      <c r="G31" s="11">
+        <v>102</v>
+      </c>
+      <c r="H31" s="13">
         <v>999</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -7029,18 +8018,27 @@
       <c r="K31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="7">
         <v>37860</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="M31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="7">
         <v>43624</v>
       </c>
-      <c r="O31" s="9" t="s">
+      <c r="O31" s="8" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7051,47 +8049,46 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ACC954-C8BB-483B-83E2-411692F806BB}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B31"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12.28515625" style="5" customWidth="1"/>
-    <col min="3" max="8" width="9.140625" style="5"/>
     <col min="9" max="9" width="17.7109375" style="5" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" style="5" customWidth="1"/>
     <col min="11" max="11" width="37.28515625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="9" customWidth="1"/>
-    <col min="13" max="13" width="14" style="9" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="14" style="8" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" style="8" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>43</v>
@@ -7114,24 +8111,33 @@
       <c r="N1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="6">
+      <c r="E2" s="11">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11">
+        <v>17</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
         <v>40</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -7143,26 +8149,35 @@
       <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="8">
+      <c r="L2" s="7"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="6">
+      <c r="E3" s="11">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11">
+        <v>17</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
         <v>40</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -7174,26 +8189,35 @@
       <c r="K3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="8">
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="7">
         <v>43405</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="6">
+      <c r="E4" s="11">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
         <v>40</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -7205,26 +8229,35 @@
       <c r="K4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="8">
+      <c r="L4" s="7"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H5" s="6">
+      <c r="E5" s="11">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11">
+        <v>17</v>
+      </c>
+      <c r="G5" s="13">
+        <v>40</v>
+      </c>
+      <c r="H5" s="11">
         <v>45</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -7236,33 +8269,42 @@
       <c r="K5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>38063</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <v>43759</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="6">
+      <c r="E6" s="11">
+        <v>13</v>
+      </c>
+      <c r="F6" s="11">
+        <v>17</v>
+      </c>
+      <c r="G6" s="13">
+        <v>40</v>
+      </c>
+      <c r="H6" s="11">
         <v>45</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -7274,33 +8316,42 @@
       <c r="K6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>38063</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <v>43759</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="6">
+      <c r="E7" s="11">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11">
+        <v>17</v>
+      </c>
+      <c r="G7" s="13">
+        <v>40</v>
+      </c>
+      <c r="H7" s="11">
         <v>45</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -7312,33 +8363,42 @@
       <c r="K7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>38063</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>43759</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H8" s="6">
+      <c r="E8" s="11">
+        <v>13</v>
+      </c>
+      <c r="F8" s="11">
+        <v>17</v>
+      </c>
+      <c r="G8" s="11">
+        <v>45</v>
+      </c>
+      <c r="H8" s="11">
         <v>49</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -7350,33 +8410,42 @@
       <c r="K8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>37418</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <v>43801</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="6">
+      <c r="E9" s="11">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11">
+        <v>17</v>
+      </c>
+      <c r="G9" s="11">
+        <v>45</v>
+      </c>
+      <c r="H9" s="11">
         <v>49</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -7388,33 +8457,42 @@
       <c r="K9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>37418</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <v>43801</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="6">
+      <c r="E10" s="11">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11">
+        <v>17</v>
+      </c>
+      <c r="G10" s="11">
+        <v>45</v>
+      </c>
+      <c r="H10" s="11">
         <v>49</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -7426,33 +8504,42 @@
       <c r="K10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>37418</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <v>43801</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H11" s="6">
+      <c r="E11" s="11">
+        <v>13</v>
+      </c>
+      <c r="F11" s="11">
+        <v>17</v>
+      </c>
+      <c r="G11" s="11">
+        <v>49</v>
+      </c>
+      <c r="H11" s="11">
         <v>55</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -7464,33 +8551,42 @@
       <c r="K11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>37303</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <v>43809</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H12" s="6">
+      <c r="E12" s="11">
+        <v>13</v>
+      </c>
+      <c r="F12" s="11">
+        <v>17</v>
+      </c>
+      <c r="G12" s="11">
+        <v>49</v>
+      </c>
+      <c r="H12" s="11">
         <v>55</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -7502,33 +8598,42 @@
       <c r="K12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>37933</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <v>43761</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H13" s="6">
+      <c r="E13" s="11">
+        <v>13</v>
+      </c>
+      <c r="F13" s="11">
+        <v>17</v>
+      </c>
+      <c r="G13" s="11">
+        <v>49</v>
+      </c>
+      <c r="H13" s="11">
         <v>55</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -7540,33 +8645,42 @@
       <c r="K13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>37933</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <v>43761</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="6">
+      <c r="E14" s="11">
+        <v>13</v>
+      </c>
+      <c r="F14" s="11">
+        <v>17</v>
+      </c>
+      <c r="G14" s="11">
+        <v>55</v>
+      </c>
+      <c r="H14" s="11">
         <v>59</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -7578,33 +8692,42 @@
       <c r="K14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>37829</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="7">
         <v>43761</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="6">
+      <c r="E15" s="11">
+        <v>13</v>
+      </c>
+      <c r="F15" s="11">
+        <v>17</v>
+      </c>
+      <c r="G15" s="11">
+        <v>55</v>
+      </c>
+      <c r="H15" s="11">
         <v>59</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -7616,33 +8739,42 @@
       <c r="K15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>37829</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <v>43761</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="O15" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="6">
+      <c r="E16" s="11">
+        <v>13</v>
+      </c>
+      <c r="F16" s="11">
+        <v>17</v>
+      </c>
+      <c r="G16" s="11">
+        <v>55</v>
+      </c>
+      <c r="H16" s="11">
         <v>59</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -7654,33 +8786,42 @@
       <c r="K16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <v>37829</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <v>43761</v>
       </c>
-      <c r="O16" s="9" t="s">
+      <c r="O16" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H17" s="6">
+      <c r="E17" s="11">
+        <v>13</v>
+      </c>
+      <c r="F17" s="11">
+        <v>17</v>
+      </c>
+      <c r="G17" s="11">
+        <v>59</v>
+      </c>
+      <c r="H17" s="11">
         <v>64</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -7692,33 +8833,42 @@
       <c r="K17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <v>37276</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <v>43771</v>
       </c>
-      <c r="O17" s="9" t="s">
+      <c r="O17" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H18" s="6">
+      <c r="E18" s="11">
+        <v>13</v>
+      </c>
+      <c r="F18" s="11">
+        <v>17</v>
+      </c>
+      <c r="G18" s="11">
+        <v>59</v>
+      </c>
+      <c r="H18" s="11">
         <v>64</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -7730,33 +8880,42 @@
       <c r="K18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <v>37276</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <v>43762</v>
       </c>
-      <c r="O18" s="9" t="s">
+      <c r="O18" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="6">
+      <c r="E19" s="11">
+        <v>13</v>
+      </c>
+      <c r="F19" s="11">
+        <v>17</v>
+      </c>
+      <c r="G19" s="11">
+        <v>59</v>
+      </c>
+      <c r="H19" s="11">
         <v>64</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -7768,33 +8927,42 @@
       <c r="K19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <v>37276</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="7">
         <v>43762</v>
       </c>
-      <c r="O19" s="9" t="s">
+      <c r="O19" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H20" s="6">
+      <c r="E20" s="11">
+        <v>13</v>
+      </c>
+      <c r="F20" s="11">
+        <v>17</v>
+      </c>
+      <c r="G20" s="11">
+        <v>64</v>
+      </c>
+      <c r="H20" s="11">
         <v>71</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -7806,26 +8974,35 @@
       <c r="K20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="8">
+      <c r="L20" s="7"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="6">
+      <c r="E21" s="11">
+        <v>13</v>
+      </c>
+      <c r="F21" s="11">
+        <v>17</v>
+      </c>
+      <c r="G21" s="11">
+        <v>64</v>
+      </c>
+      <c r="H21" s="11">
         <v>71</v>
       </c>
       <c r="I21" s="4" t="s">
@@ -7837,26 +9014,35 @@
       <c r="K21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="8">
+      <c r="L21" s="7"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H22" s="6">
+      <c r="E22" s="11">
+        <v>13</v>
+      </c>
+      <c r="F22" s="11">
+        <v>17</v>
+      </c>
+      <c r="G22" s="11">
+        <v>64</v>
+      </c>
+      <c r="H22" s="11">
         <v>71</v>
       </c>
       <c r="I22" s="4" t="s">
@@ -7868,26 +9054,35 @@
       <c r="K22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="8">
+      <c r="L22" s="7"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="6">
+      <c r="E23" s="11">
+        <v>13</v>
+      </c>
+      <c r="F23" s="11">
+        <v>17</v>
+      </c>
+      <c r="G23" s="11">
+        <v>71</v>
+      </c>
+      <c r="H23" s="11">
         <v>76</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -7899,33 +9094,42 @@
       <c r="K23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="7">
         <v>37319</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="7">
         <v>43763</v>
       </c>
-      <c r="O23" s="9" t="s">
+      <c r="O23" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H24" s="6">
+      <c r="E24" s="11">
+        <v>13</v>
+      </c>
+      <c r="F24" s="11">
+        <v>17</v>
+      </c>
+      <c r="G24" s="11">
+        <v>71</v>
+      </c>
+      <c r="H24" s="11">
         <v>76</v>
       </c>
       <c r="I24" s="4" t="s">
@@ -7937,33 +9141,42 @@
       <c r="K24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="7">
         <v>37332</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="7">
         <v>43761</v>
       </c>
-      <c r="O24" s="9" t="s">
+      <c r="O24" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H25" s="6">
+      <c r="E25" s="11">
+        <v>13</v>
+      </c>
+      <c r="F25" s="11">
+        <v>17</v>
+      </c>
+      <c r="G25" s="11">
+        <v>71</v>
+      </c>
+      <c r="H25" s="11">
         <v>76</v>
       </c>
       <c r="I25" s="4" t="s">
@@ -7975,26 +9188,35 @@
       <c r="K25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="8">
+      <c r="L25" s="7"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H26" s="6">
+      <c r="E26" s="11">
+        <v>13</v>
+      </c>
+      <c r="F26" s="11">
+        <v>17</v>
+      </c>
+      <c r="G26" s="11">
+        <v>76</v>
+      </c>
+      <c r="H26" s="11">
         <v>81</v>
       </c>
       <c r="I26" s="4" t="s">
@@ -8006,26 +9228,35 @@
       <c r="K26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="8"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="8">
+      <c r="L26" s="7"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="6">
+      <c r="E27" s="11">
+        <v>13</v>
+      </c>
+      <c r="F27" s="11">
+        <v>17</v>
+      </c>
+      <c r="G27" s="11">
+        <v>76</v>
+      </c>
+      <c r="H27" s="11">
         <v>81</v>
       </c>
       <c r="I27" s="4" t="s">
@@ -8037,26 +9268,35 @@
       <c r="K27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="8">
+      <c r="L27" s="7"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H28" s="6">
+      <c r="E28" s="11">
+        <v>13</v>
+      </c>
+      <c r="F28" s="11">
+        <v>17</v>
+      </c>
+      <c r="G28" s="11">
+        <v>76</v>
+      </c>
+      <c r="H28" s="11">
         <v>81</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -8068,26 +9308,35 @@
       <c r="K28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L28" s="8"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="8">
+      <c r="L28" s="7"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="7">
         <v>43405</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="6">
+      <c r="E29" s="11">
+        <v>13</v>
+      </c>
+      <c r="F29" s="11">
+        <v>17</v>
+      </c>
+      <c r="G29" s="11">
+        <v>81</v>
+      </c>
+      <c r="H29" s="11">
         <v>999</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -8099,33 +9348,42 @@
       <c r="K29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="7">
         <v>37692</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M29" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="7">
         <v>43765</v>
       </c>
-      <c r="O29" s="9" t="s">
+      <c r="O29" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H30" s="6">
+      <c r="E30" s="11">
+        <v>13</v>
+      </c>
+      <c r="F30" s="11">
+        <v>17</v>
+      </c>
+      <c r="G30" s="11">
+        <v>81</v>
+      </c>
+      <c r="H30" s="11">
         <v>999</v>
       </c>
       <c r="I30" s="4" t="s">
@@ -8137,33 +9395,42 @@
       <c r="K30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="7">
         <v>37692</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M30" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="7">
         <v>43765</v>
       </c>
-      <c r="O30" s="9" t="s">
+      <c r="O30" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H31" s="6">
+      <c r="E31" s="11">
+        <v>13</v>
+      </c>
+      <c r="F31" s="11">
+        <v>17</v>
+      </c>
+      <c r="G31" s="11">
+        <v>81</v>
+      </c>
+      <c r="H31" s="11">
         <v>999</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -8175,18 +9442,30 @@
       <c r="K31" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="7">
         <v>37692</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="M31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="7">
         <v>43765</v>
       </c>
-      <c r="O31" s="9" t="s">
+      <c r="O31" s="8" t="s">
         <v>34</v>
       </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/owlcms/src/test/resources/testData/records/IWFRecords.xlsx
+++ b/owlcms/src/test/resources/testData/records/IWFRecords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms4\owlcms\src\test\resources\testData\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02537B8B-62B1-45EA-9848-ACE9022C1A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14F6940-B5DE-42F0-A37E-2F4F23A7466A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="World SR M" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="140">
   <si>
     <t>Snatch</t>
   </si>
@@ -441,6 +441,18 @@
   </si>
   <si>
     <t>World</t>
+  </si>
+  <si>
+    <t>&gt;81</t>
+  </si>
+  <si>
+    <t>&gt;102</t>
+  </si>
+  <si>
+    <t>&gt;87</t>
+  </si>
+  <si>
+    <t>&gt;109</t>
   </si>
 </sst>
 </file>
@@ -831,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EAEB142-1202-4A14-BA22-239124B7DE48}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,8 +2149,8 @@
       <c r="G29" s="11">
         <v>109</v>
       </c>
-      <c r="H29">
-        <v>999</v>
+      <c r="H29" t="s">
+        <v>139</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>0</v>
@@ -2184,8 +2196,8 @@
       <c r="G30" s="11">
         <v>109</v>
       </c>
-      <c r="H30">
-        <v>999</v>
+      <c r="H30" t="s">
+        <v>139</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>17</v>
@@ -2231,8 +2243,8 @@
       <c r="G31" s="11">
         <v>109</v>
       </c>
-      <c r="H31">
-        <v>999</v>
+      <c r="H31" t="s">
+        <v>139</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>6</v>
@@ -2266,7 +2278,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="H29" sqref="H29:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3549,8 +3561,8 @@
       <c r="G29" s="11">
         <v>87</v>
       </c>
-      <c r="H29" s="11">
-        <v>999</v>
+      <c r="H29" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>0</v>
@@ -3596,8 +3608,8 @@
       <c r="G30" s="11">
         <v>87</v>
       </c>
-      <c r="H30" s="11">
-        <v>999</v>
+      <c r="H30" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>17</v>
@@ -3643,8 +3655,8 @@
       <c r="G31" s="11">
         <v>87</v>
       </c>
-      <c r="H31" s="11">
-        <v>999</v>
+      <c r="H31" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>6</v>
@@ -3678,7 +3690,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H30" sqref="H30:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5003,8 +5015,8 @@
       <c r="G29" s="11">
         <v>109</v>
       </c>
-      <c r="H29">
-        <v>999</v>
+      <c r="H29" t="s">
+        <v>139</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>0</v>
@@ -5050,8 +5062,8 @@
       <c r="G30" s="11">
         <v>109</v>
       </c>
-      <c r="H30">
-        <v>999</v>
+      <c r="H30" t="s">
+        <v>139</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>17</v>
@@ -5097,8 +5109,8 @@
       <c r="G31" s="11">
         <v>109</v>
       </c>
-      <c r="H31">
-        <v>999</v>
+      <c r="H31" t="s">
+        <v>139</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>6</v>
@@ -5123,6 +5135,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5132,7 +5145,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H30" sqref="H30:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6457,8 +6470,8 @@
       <c r="G29" s="11">
         <v>87</v>
       </c>
-      <c r="H29" s="11">
-        <v>999</v>
+      <c r="H29" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>0</v>
@@ -6504,8 +6517,8 @@
       <c r="G30" s="11">
         <v>87</v>
       </c>
-      <c r="H30" s="11">
-        <v>999</v>
+      <c r="H30" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>17</v>
@@ -6551,8 +6564,8 @@
       <c r="G31" s="11">
         <v>87</v>
       </c>
-      <c r="H31" s="11">
-        <v>999</v>
+      <c r="H31" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>6</v>
@@ -6586,7 +6599,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="H30" sqref="H30:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7912,8 +7925,8 @@
       <c r="G29" s="11">
         <v>102</v>
       </c>
-      <c r="H29" s="13">
-        <v>999</v>
+      <c r="H29" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>0</v>
@@ -7959,8 +7972,8 @@
       <c r="G30" s="11">
         <v>102</v>
       </c>
-      <c r="H30" s="13">
-        <v>999</v>
+      <c r="H30" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>17</v>
@@ -8006,8 +8019,8 @@
       <c r="G31" s="11">
         <v>102</v>
       </c>
-      <c r="H31" s="13">
-        <v>999</v>
+      <c r="H31" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>6</v>
@@ -8051,8 +8064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ACC954-C8BB-483B-83E2-411692F806BB}">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H31" sqref="H29:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9336,8 +9349,8 @@
       <c r="G29" s="11">
         <v>81</v>
       </c>
-      <c r="H29" s="11">
-        <v>999</v>
+      <c r="H29" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>0</v>
@@ -9383,8 +9396,8 @@
       <c r="G30" s="11">
         <v>81</v>
       </c>
-      <c r="H30" s="11">
-        <v>999</v>
+      <c r="H30" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>17</v>
@@ -9430,8 +9443,8 @@
       <c r="G31" s="11">
         <v>81</v>
       </c>
-      <c r="H31" s="11">
-        <v>999</v>
+      <c r="H31" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>6</v>
@@ -9468,6 +9481,7 @@
       <c r="H34" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>